--- a/public/data/profit/profit_table_niger.xlsx
+++ b/public/data/profit/profit_table_niger.xlsx
@@ -1737,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.13</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.8</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-5.88</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -2697,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-53.99</v>
+        <v>-1.11</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-56.65</v>
+        <v>6.31</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-54.85</v>
+        <v>-3.29</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2857,13 +2857,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-45.86</v>
+        <v>1.03</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-43.85</v>
+        <v>9.62</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-47.03</v>
+        <v>-4.06</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-9.24</v>
+        <v>-2.59</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-9.22</v>
+        <v>-1.37</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3352,25 +3352,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-10.43</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-9.92</v>
+        <v>-4.47</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-10.46</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-10.6</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-3.92</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-10.59</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-4.12</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>-10.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3497,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-8.64</v>
+        <v>-2.59</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-8.53</v>
+        <v>-1.37</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3512,25 +3512,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>-7.25</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-9.37</v>
+        <v>-4.47</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-7.27</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-7.37</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-7.36</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>-2.95</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>-7.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
